--- a/docs/系统设计.xlsx
+++ b/docs/系统设计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\simple_saas_pay\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\levent\simple_saas_pay\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1B2D2D-C4D4-426F-98F6-22A0AD212B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1F530-8175-4DCF-A17C-6F5FE48F0118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{FF67331B-405E-4495-91AB-4B069969E7AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{FF67331B-405E-4495-91AB-4B069969E7AE}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="微信用户表" sheetId="4" r:id="rId4"/>
     <sheet name="商户表" sheetId="5" r:id="rId5"/>
     <sheet name="微信token获取策略表" sheetId="6" r:id="rId6"/>
+    <sheet name="订单模板表" sheetId="9" r:id="rId7"/>
+    <sheet name="数据库ER图" sheetId="8" r:id="rId8"/>
+    <sheet name="软件结构划分" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="183">
   <si>
     <t>页码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,6 +479,315 @@
   </si>
   <si>
     <t>记录每个商户不同的微信AccessToken及JSApiTicket获取策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-repository</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-web-commons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-web-user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-web-merchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-wechat-api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-wechat-token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-parent
+总项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-commons（通用组件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-model（数据模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-web（web项目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-wechat（微信组件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据仓库组件，与关系型数据库交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web项目通用组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户端web组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户端web组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat-tools-web-admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员端web组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信API组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信AccessToken策略相关组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目结构划分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整体结构及名称划分表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭文梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020.08.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通用组件：
+1. 实体类
+2. 工具类
+3. 数据字典
+4. 通用异常
+5. 通用数据传输对象、通用数据视图对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>merchant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference To
+t_merchant.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该用户时通过哪个商户注册的该系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库ER图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表关系ER图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户序列号，用于标识一个商户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单模板表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单创建时使用的模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单模板项目表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_template_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单创建是需要用户填入的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_order_template 订单模板表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference To
+t_merchant.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该订单模板所属的商户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该模板的类型
+0x01: 固定金额订单
+0x02: 可变金额订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当该模板类型为固定金额模板时，
+该值不为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当该订单模板为固定金额模板时，
+创建订单时用户不需要输入金额，
+使用该金额创建订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单支付页面主题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_theme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信商户号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_merchant_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付时使用的微信商户号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信商户API_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w_merchant_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>师傅时使用的微信商户API_KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板更新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该模板的创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该模板最后一次更新的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑删除标志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -584,9 +896,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -602,6 +911,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -918,20 +1242,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754FD3B2-1E95-4453-AE38-3687815B8D53}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>70</v>
       </c>
@@ -942,8 +1266,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -951,20 +1275,40 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" location="版本说明!A1" display="版本说明" xr:uid="{9B017F9F-117B-440C-BD67-58F2CE0CDB44}"/>
     <hyperlink ref="A3" location="表目录!A1" display="数据库表目录" xr:uid="{79F13256-D5C8-43C8-9174-6F08166D78D5}"/>
+    <hyperlink ref="A5" location="软件结构划分!A1" display="项目结构划分" xr:uid="{B7D35828-CEA4-4D01-9611-024AFB99589D}"/>
+    <hyperlink ref="A4" location="数据库ER图!A1" display="数据库ER图" xr:uid="{45A1ADC3-6796-49B7-B235-BE1F8B6EEC5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -972,36 +1316,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAC37FC-F516-4B09-A4A4-BE4EDDBC9580}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -1013,6 +1357,18 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1023,22 +1379,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E7078-F8C5-480E-81FE-803603F96957}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1055,9 +1411,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1068,9 +1424,9 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1081,9 +1437,9 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1093,6 +1449,32 @@
         <v>108</v>
       </c>
       <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1100,6 +1482,7 @@
     <hyperlink ref="B2" location="微信用户表!A1" display="微信用户表" xr:uid="{C2459FBF-A724-4379-B596-293A7CF6B1EF}"/>
     <hyperlink ref="B3" location="商户表!A1" display="商户表" xr:uid="{57CDBA10-B95A-463F-912A-5B34564FF37E}"/>
     <hyperlink ref="B4" location="微信token获取策略表!A1" display="微信AccessToken获取策略表" xr:uid="{7333BE7D-86ED-4B26-A701-7BBBBD4789C7}"/>
+    <hyperlink ref="B5" location="订单模板表!A1" display="订单模板表" xr:uid="{AEFE3FC7-04B9-4D76-8934-C2A71C4EF88A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1108,37 +1491,40 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F62947C4-2B33-4320-92A4-97A8985E53A8}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.125" customWidth="1"/>
-    <col min="9" max="9" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.109375" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1155,19 +1541,22 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1182,172 +1571,210 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1356,36 +1783,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1EFE84-8031-43FD-8AE6-5D9BCC1D4819}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1402,19 +1831,22 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1429,189 +1861,222 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1620,35 +2085,299 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8111F7-6125-48D1-AAA1-267AB82348F8}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="207" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A37CAD1-001E-4E69-A791-A39E60A3F028}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1665,19 +2394,22 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1688,21 +2420,24 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
@@ -1713,149 +2448,354 @@
         <v>18</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>100</v>
+        <v>172</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>100</v>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>44</v>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1DDA4F-69F9-4CED-947B-F967730836CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5382DD8C-9589-4310-BD99-2F6A01F26FE6}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B5:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
